--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H2">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N2">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O2">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P2">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q2">
-        <v>37.48971435548919</v>
+        <v>37.54313191115556</v>
       </c>
       <c r="R2">
-        <v>37.48971435548919</v>
+        <v>337.8881872004</v>
       </c>
       <c r="S2">
-        <v>0.01225382702812919</v>
+        <v>0.009690577669408619</v>
       </c>
       <c r="T2">
-        <v>0.01225382702812919</v>
+        <v>0.009690577669408623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H3">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N3">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O3">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P3">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q3">
-        <v>51.2036553164827</v>
+        <v>51.90751331632444</v>
       </c>
       <c r="R3">
-        <v>51.2036553164827</v>
+        <v>467.1676198469199</v>
       </c>
       <c r="S3">
-        <v>0.01673634345427489</v>
+        <v>0.01339829054773768</v>
       </c>
       <c r="T3">
-        <v>0.01673634345427489</v>
+        <v>0.01339829054773768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H4">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N4">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O4">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P4">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q4">
-        <v>279.7953026160025</v>
+        <v>287.4585772306622</v>
       </c>
       <c r="R4">
-        <v>279.7953026160025</v>
+        <v>2587.12719507596</v>
       </c>
       <c r="S4">
-        <v>0.09145343730893357</v>
+        <v>0.07419838270242192</v>
       </c>
       <c r="T4">
-        <v>0.09145343730893357</v>
+        <v>0.07419838270242193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H5">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N5">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O5">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P5">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q5">
-        <v>253.2648990983554</v>
+        <v>379.2938464159283</v>
       </c>
       <c r="R5">
-        <v>253.2648990983554</v>
+        <v>3413.644617743355</v>
       </c>
       <c r="S5">
-        <v>0.08278175278743984</v>
+        <v>0.09790276652785426</v>
       </c>
       <c r="T5">
-        <v>0.08278175278743984</v>
+        <v>0.0979027665278543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H6">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I6">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J6">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N6">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O6">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P6">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q6">
-        <v>10.08436838812249</v>
+        <v>10.63837110248055</v>
       </c>
       <c r="R6">
-        <v>10.08436838812249</v>
+        <v>95.74533992232499</v>
       </c>
       <c r="S6">
-        <v>0.00329616024129279</v>
+        <v>0.002745960611079101</v>
       </c>
       <c r="T6">
-        <v>0.00329616024129279</v>
+        <v>0.002745960611079102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H7">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N7">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O7">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P7">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q7">
-        <v>97.19829431319826</v>
+        <v>97.68279462879111</v>
       </c>
       <c r="R7">
-        <v>97.19829431319826</v>
+        <v>879.14515165912</v>
       </c>
       <c r="S7">
-        <v>0.03177007631077704</v>
+        <v>0.02521373844236788</v>
       </c>
       <c r="T7">
-        <v>0.03177007631077704</v>
+        <v>0.0252137384423679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H8">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N8">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O8">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P8">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q8">
-        <v>132.7539578501572</v>
+        <v>135.0572183207529</v>
       </c>
       <c r="R8">
-        <v>132.7539578501572</v>
+        <v>1215.514964886776</v>
       </c>
       <c r="S8">
-        <v>0.04339174263559559</v>
+        <v>0.034860769395817</v>
       </c>
       <c r="T8">
-        <v>0.04339174263559559</v>
+        <v>0.03486076939581702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H9">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N9">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O9">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P9">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q9">
-        <v>725.4156677013633</v>
+        <v>747.9332632758765</v>
       </c>
       <c r="R9">
-        <v>725.4156677013633</v>
+        <v>6731.399369482889</v>
       </c>
       <c r="S9">
-        <v>0.2371081846934857</v>
+        <v>0.1930554274603682</v>
       </c>
       <c r="T9">
-        <v>0.2371081846934857</v>
+        <v>0.1930554274603683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H10">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J10">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N10">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O10">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P10">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q10">
-        <v>656.6312020502241</v>
+        <v>986.8777860912076</v>
       </c>
       <c r="R10">
-        <v>656.6312020502241</v>
+        <v>8881.900074820869</v>
       </c>
       <c r="S10">
-        <v>0.2146254061820527</v>
+        <v>0.2547314342064574</v>
       </c>
       <c r="T10">
-        <v>0.2146254061820527</v>
+        <v>0.2547314342064575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H11">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J11">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N11">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O11">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P11">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q11">
-        <v>26.14539543451938</v>
+        <v>27.67978500162611</v>
       </c>
       <c r="R11">
-        <v>26.14539543451938</v>
+        <v>249.118065014635</v>
       </c>
       <c r="S11">
-        <v>0.008545841405956978</v>
+        <v>0.007144665156480642</v>
       </c>
       <c r="T11">
-        <v>0.008545841405956978</v>
+        <v>0.007144665156480644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H12">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N12">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O12">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P12">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q12">
-        <v>1.904484905969569</v>
+        <v>2.525939978764445</v>
       </c>
       <c r="R12">
-        <v>1.904484905969569</v>
+        <v>22.73345980888</v>
       </c>
       <c r="S12">
-        <v>0.0006224968372429595</v>
+        <v>0.0006519918905648859</v>
       </c>
       <c r="T12">
-        <v>0.0006224968372429595</v>
+        <v>0.0006519918905648861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H13">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N13">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O13">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P13">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q13">
-        <v>2.60115581986107</v>
+        <v>3.492390123291556</v>
       </c>
       <c r="R13">
-        <v>2.60115581986107</v>
+        <v>31.431511109624</v>
       </c>
       <c r="S13">
-        <v>0.0008502095584817966</v>
+        <v>0.0009014505721504865</v>
       </c>
       <c r="T13">
-        <v>0.0008502095584817966</v>
+        <v>0.0009014505721504869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H14">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I14">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J14">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N14">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O14">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P14">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q14">
-        <v>14.21365672569717</v>
+        <v>19.34050452114578</v>
       </c>
       <c r="R14">
-        <v>14.21365672569717</v>
+        <v>174.064540690312</v>
       </c>
       <c r="S14">
-        <v>0.004645852707821347</v>
+        <v>0.004992142415588445</v>
       </c>
       <c r="T14">
-        <v>0.004645852707821347</v>
+        <v>0.004992142415588447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H15">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I15">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J15">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N15">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O15">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P15">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q15">
-        <v>12.86590697840568</v>
+        <v>25.51927454077567</v>
       </c>
       <c r="R15">
-        <v>12.86590697840568</v>
+        <v>229.673470866981</v>
       </c>
       <c r="S15">
-        <v>0.004205329418582237</v>
+        <v>0.006586997392480912</v>
       </c>
       <c r="T15">
-        <v>0.004205329418582237</v>
+        <v>0.006586997392480916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H16">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I16">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J16">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N16">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O16">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P16">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q16">
-        <v>0.5122879091396416</v>
+        <v>0.7157603936794444</v>
       </c>
       <c r="R16">
-        <v>0.5122879091396416</v>
+        <v>6.441843543115001</v>
       </c>
       <c r="S16">
-        <v>0.0001674455923476513</v>
+        <v>0.0001847510139551289</v>
       </c>
       <c r="T16">
-        <v>0.0001674455923476513</v>
+        <v>0.000184751013955129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H17">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N17">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O17">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P17">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q17">
-        <v>5.676596414578301</v>
+        <v>11.02625462893333</v>
       </c>
       <c r="R17">
-        <v>5.676596414578301</v>
+        <v>99.2362916604</v>
       </c>
       <c r="S17">
-        <v>0.001855443066680928</v>
+        <v>0.002846080533110909</v>
       </c>
       <c r="T17">
-        <v>0.001855443066680928</v>
+        <v>0.00284608053311091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H18">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I18">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J18">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N18">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O18">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P18">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q18">
-        <v>7.753126188871336</v>
+        <v>15.24501100054666</v>
       </c>
       <c r="R18">
-        <v>7.753126188871336</v>
+        <v>137.20509900492</v>
       </c>
       <c r="S18">
-        <v>0.00253417420961964</v>
+        <v>0.003935019686727013</v>
       </c>
       <c r="T18">
-        <v>0.00253417420961964</v>
+        <v>0.003935019686727014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H19">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I19">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J19">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N19">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O19">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P19">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q19">
-        <v>42.36588725604136</v>
+        <v>84.42533444777334</v>
       </c>
       <c r="R19">
-        <v>42.36588725604136</v>
+        <v>759.8280100299601</v>
       </c>
       <c r="S19">
-        <v>0.01384764496752538</v>
+        <v>0.02179174243289084</v>
       </c>
       <c r="T19">
-        <v>0.01384764496752538</v>
+        <v>0.02179174243289084</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H20">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I20">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J20">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N20">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O20">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P20">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q20">
-        <v>38.34872158607835</v>
+        <v>111.396953766845</v>
       </c>
       <c r="R20">
-        <v>38.34872158607835</v>
+        <v>1002.572583901605</v>
       </c>
       <c r="S20">
-        <v>0.01253460073367786</v>
+        <v>0.02875361691101668</v>
       </c>
       <c r="T20">
-        <v>0.01253460073367786</v>
+        <v>0.0287536169110167</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H21">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I21">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J21">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N21">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O21">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P21">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q21">
-        <v>1.526949202452944</v>
+        <v>3.124443344008333</v>
       </c>
       <c r="R21">
-        <v>1.526949202452944</v>
+        <v>28.119990096075</v>
       </c>
       <c r="S21">
-        <v>0.0004990961315462402</v>
+        <v>0.0008064766938046225</v>
       </c>
       <c r="T21">
-        <v>0.0004990961315462402</v>
+        <v>0.0008064766938046226</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H22">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I22">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J22">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N22">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O22">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P22">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q22">
-        <v>39.26024509711488</v>
+        <v>40.89498567914666</v>
       </c>
       <c r="R22">
-        <v>39.26024509711488</v>
+        <v>368.05487111232</v>
       </c>
       <c r="S22">
-        <v>0.01283253982519508</v>
+        <v>0.01055575320543166</v>
       </c>
       <c r="T22">
-        <v>0.01283253982519508</v>
+        <v>0.01055575320543167</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H23">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I23">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J23">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N23">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O23">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P23">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q23">
-        <v>53.62185581173839</v>
+        <v>56.54182018523733</v>
       </c>
       <c r="R23">
-        <v>53.62185581173839</v>
+        <v>508.8763816671359</v>
       </c>
       <c r="S23">
-        <v>0.01752675253307495</v>
+        <v>0.01459449098097138</v>
       </c>
       <c r="T23">
-        <v>0.01752675253307495</v>
+        <v>0.01459449098097138</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H24">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I24">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J24">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N24">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O24">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P24">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q24">
-        <v>293.0092252387967</v>
+        <v>313.1229016006187</v>
       </c>
       <c r="R24">
-        <v>293.0092252387967</v>
+        <v>2818.106114405568</v>
       </c>
       <c r="S24">
-        <v>0.09577251855472321</v>
+        <v>0.08082282014223126</v>
       </c>
       <c r="T24">
-        <v>0.09577251855472321</v>
+        <v>0.08082282014223127</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H25">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I25">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J25">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N25">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O25">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P25">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q25">
-        <v>265.2258675222908</v>
+        <v>413.157230837176</v>
       </c>
       <c r="R25">
-        <v>265.2258675222908</v>
+        <v>3718.415077534584</v>
       </c>
       <c r="S25">
-        <v>0.08669129546269257</v>
+        <v>0.1066435332188088</v>
       </c>
       <c r="T25">
-        <v>0.08669129546269257</v>
+        <v>0.1066435332188089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H26">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I26">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J26">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N26">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O26">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P26">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q26">
-        <v>10.56062393042259</v>
+        <v>11.58816571070667</v>
       </c>
       <c r="R26">
-        <v>10.56062393042259</v>
+        <v>104.29349139636</v>
       </c>
       <c r="S26">
-        <v>0.003451828352849867</v>
+        <v>0.002991120190274085</v>
       </c>
       <c r="T26">
-        <v>0.003451828352849867</v>
+        <v>0.002991120190274086</v>
       </c>
     </row>
   </sheetData>
